--- a/results/mp/logistic/corona/confidence/168/0.15/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="78">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,42 +43,42 @@
     <t>forced</t>
   </si>
   <si>
+    <t>kill</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>kill</t>
+    <t>died</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>die</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>sc</t>
+    <t>fears</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -94,166 +94,160 @@
     <t>of</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>co</t>
   </si>
   <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>the</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>to</t>
   </si>
 </sst>
 </file>
@@ -611,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,10 +613,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -701,16 +695,16 @@
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K3">
-        <v>0.9152542372881356</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -722,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -730,13 +724,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7465753424657534</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C4">
-        <v>218</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>218</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -748,19 +742,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K4">
-        <v>0.8947368421052632</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -772,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -780,13 +774,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6842105263157895</v>
+        <v>0.7328767123287672</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>214</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>214</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -798,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K5">
-        <v>0.8916666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M5">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -822,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -830,13 +824,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5789473684210527</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -848,19 +842,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K6">
-        <v>0.8913043478260869</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L6">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -872,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -880,13 +874,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5769230769230769</v>
+        <v>0.5</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -898,19 +892,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K7">
-        <v>0.8846153846153846</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -922,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -930,13 +924,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5588235294117647</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -951,16 +945,16 @@
         <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K8">
-        <v>0.8666666666666667</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L8">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M8">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -972,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -980,13 +974,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4864864864864865</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1001,16 +995,16 @@
         <v>19</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K9">
-        <v>0.8571428571428571</v>
+        <v>0.875</v>
       </c>
       <c r="L9">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M9">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1022,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1030,13 +1024,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4722222222222222</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1048,19 +1042,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K10">
-        <v>0.8333333333333334</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1072,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1080,13 +1074,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4285714285714285</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C11">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1098,19 +1092,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K11">
-        <v>0.825065274151436</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="L11">
-        <v>316</v>
+        <v>85</v>
       </c>
       <c r="M11">
-        <v>316</v>
+        <v>85</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1122,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1130,13 +1124,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3255813953488372</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="C12">
-        <v>168</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>168</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1148,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>348</v>
+        <v>23</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K12">
-        <v>0.8207547169811321</v>
+        <v>0.8015665796344648</v>
       </c>
       <c r="L12">
-        <v>87</v>
+        <v>307</v>
       </c>
       <c r="M12">
-        <v>87</v>
+        <v>307</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1172,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>19</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1180,13 +1174,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3137254901960784</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1198,19 +1192,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K13">
-        <v>0.8181818181818182</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L13">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="M13">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1222,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1230,13 +1224,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3050847457627119</v>
+        <v>0.3197674418604651</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1248,19 +1242,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>41</v>
+        <v>351</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K14">
-        <v>0.8125</v>
+        <v>0.78125</v>
       </c>
       <c r="L14">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="M14">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1272,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1280,13 +1274,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2363636363636364</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1298,19 +1292,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K15">
-        <v>0.8085106382978723</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L15">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="M15">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1322,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1330,13 +1324,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2</v>
+        <v>0.2133333333333333</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1348,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K16">
-        <v>0.8055555555555556</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L16">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M16">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1372,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1401,16 +1395,16 @@
         <v>125</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K17">
-        <v>0.7931034482758621</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="L17">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="M17">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1422,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1430,37 +1424,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1222222222222222</v>
+        <v>0.1</v>
       </c>
       <c r="C18">
+        <v>36</v>
+      </c>
+      <c r="D18">
+        <v>36</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>324</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D18">
-        <v>44</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>316</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="K18">
-        <v>0.7926829268292683</v>
+        <v>0.765625</v>
       </c>
       <c r="L18">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="M18">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1472,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1480,13 +1474,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.05158730158730158</v>
+        <v>0.05952380952380952</v>
       </c>
       <c r="C19">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1498,19 +1492,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K19">
-        <v>0.78125</v>
+        <v>0.75</v>
       </c>
       <c r="L19">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="M19">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1522,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1530,37 +1524,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.007157894736842105</v>
+        <v>0.005894736842105263</v>
       </c>
       <c r="C20">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E20">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="F20">
-        <v>0.8100000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>2358</v>
+        <v>2361</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K20">
-        <v>0.7727272727272727</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L20">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1572,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1580,37 +1574,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.005637467476149176</v>
+        <v>0.005154639175257732</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D21">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>0.16</v>
+      </c>
+      <c r="F21">
+        <v>0.84</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>3088</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K21">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="L21">
         <v>16</v>
       </c>
-      <c r="E21">
-        <v>0.19</v>
-      </c>
-      <c r="F21">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>2293</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K21">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L21">
-        <v>30</v>
-      </c>
       <c r="M21">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1622,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1630,163 +1624,115 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.004505954296749276</v>
+        <v>0.003246000463714352</v>
       </c>
       <c r="C22">
         <v>14</v>
       </c>
       <c r="D22">
+        <v>29</v>
+      </c>
+      <c r="E22">
+        <v>0.52</v>
+      </c>
+      <c r="F22">
+        <v>0.48</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>4299</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="L22">
+        <v>24</v>
+      </c>
+      <c r="M22">
+        <v>24</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="J23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K23">
+        <v>0.7021276595744681</v>
+      </c>
+      <c r="L23">
+        <v>33</v>
+      </c>
+      <c r="M23">
+        <v>33</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>14</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>3093</v>
-      </c>
-      <c r="J22" s="1" t="s">
+    </row>
+    <row r="24" spans="1:17">
+      <c r="J24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K22">
-        <v>0.7676056338028169</v>
-      </c>
-      <c r="L22">
-        <v>109</v>
-      </c>
-      <c r="M22">
-        <v>109</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0.004078461837249951</v>
-      </c>
-      <c r="C23">
-        <v>21</v>
-      </c>
-      <c r="D23">
-        <v>37</v>
-      </c>
-      <c r="E23">
-        <v>0.43</v>
-      </c>
-      <c r="F23">
-        <v>0.5700000000000001</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>5128</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K23">
-        <v>0.7222222222222222</v>
-      </c>
-      <c r="L23">
+      <c r="K24">
+        <v>0.675</v>
+      </c>
+      <c r="L24">
+        <v>27</v>
+      </c>
+      <c r="M24">
+        <v>27</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>13</v>
-      </c>
-      <c r="M23">
-        <v>13</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>0.002610441767068273</v>
-      </c>
-      <c r="C24">
-        <v>13</v>
-      </c>
-      <c r="D24">
-        <v>29</v>
-      </c>
-      <c r="E24">
-        <v>0.55</v>
-      </c>
-      <c r="F24">
-        <v>0.45</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>4967</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K24">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="L24">
-        <v>34</v>
-      </c>
-      <c r="M24">
-        <v>34</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K25">
-        <v>0.7037037037037037</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L25">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M25">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1798,15 +1744,15 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K26">
-        <v>0.6857142857142857</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L26">
         <v>24</v>
@@ -1824,21 +1770,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K27">
-        <v>0.6842105263157895</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L27">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M27">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1850,21 +1796,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K28">
-        <v>0.6818181818181818</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L28">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1876,21 +1822,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K29">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="L29">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M29">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1902,21 +1848,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K30">
-        <v>0.6428571428571429</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L30">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M30">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1928,21 +1874,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K31">
-        <v>0.6428571428571429</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L31">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M31">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1954,12 +1900,12 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K32">
         <v>0.6279069767441861</v>
@@ -1985,16 +1931,16 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K33">
-        <v>0.62</v>
+        <v>0.625</v>
       </c>
       <c r="L33">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="M33">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2006,21 +1952,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K34">
-        <v>0.611764705882353</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L34">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M34">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2032,21 +1978,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K35">
-        <v>0.6031746031746031</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L35">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="M35">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2058,21 +2004,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K36">
-        <v>0.5966101694915255</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L36">
-        <v>176</v>
+        <v>37</v>
       </c>
       <c r="M36">
-        <v>176</v>
+        <v>37</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2084,21 +2030,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>119</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K37">
-        <v>0.5833333333333334</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="L37">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="M37">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2110,21 +2056,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>10</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K38">
-        <v>0.574468085106383</v>
+        <v>0.5523012552301255</v>
       </c>
       <c r="L38">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="M38">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2136,21 +2082,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>40</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K39">
-        <v>0.5692307692307692</v>
+        <v>0.5425531914893617</v>
       </c>
       <c r="L39">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="M39">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2162,21 +2108,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K40">
-        <v>0.5564853556485355</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="L40">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="M40">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2188,21 +2134,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>106</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K41">
-        <v>0.5428571428571428</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L41">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M41">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2214,21 +2160,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K42">
-        <v>0.4848484848484849</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="L42">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M42">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2240,21 +2186,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K43">
-        <v>0.4761904761904762</v>
+        <v>0.4044943820224719</v>
       </c>
       <c r="L43">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M43">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2266,21 +2212,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>22</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K44">
-        <v>0.4157303370786517</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="L44">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M44">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2292,21 +2238,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K45">
-        <v>0.3529411764705883</v>
+        <v>0.2948717948717949</v>
       </c>
       <c r="L45">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M45">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2318,21 +2264,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K46">
-        <v>0.2465753424657534</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="L46">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M46">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2344,21 +2290,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K47">
-        <v>0.2435897435897436</v>
+        <v>0.2054794520547945</v>
       </c>
       <c r="L47">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M47">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2370,163 +2316,137 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K48">
-        <v>0.234375</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="L48">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M48">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>49</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K49">
-        <v>0.01834862385321101</v>
+        <v>0.005617977528089887</v>
       </c>
       <c r="L49">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M49">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N49">
-        <v>0.96</v>
+        <v>0.83</v>
       </c>
       <c r="O49">
-        <v>0.04000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>1177</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="K50">
-        <v>0.005628517823639775</v>
+        <v>0.003477051460361614</v>
       </c>
       <c r="L50">
         <v>15</v>
       </c>
       <c r="M50">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N50">
-        <v>0.65</v>
+        <v>0.52</v>
       </c>
       <c r="O50">
-        <v>0.35</v>
+        <v>0.48</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>2650</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K51">
-        <v>0.003242992819087329</v>
+        <v>0.003207055522148727</v>
       </c>
       <c r="L51">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M51">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N51">
-        <v>0.5600000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="O51">
-        <v>0.4399999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>4303</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="K52">
-        <v>0.003210917118201886</v>
+        <v>0.002521823472356935</v>
       </c>
       <c r="L52">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M52">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="N52">
-        <v>0.55</v>
+        <v>0.57</v>
       </c>
       <c r="O52">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>4967</v>
-      </c>
-    </row>
-    <row r="53" spans="10:17">
-      <c r="J53" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K53">
-        <v>0.003110419906687403</v>
-      </c>
-      <c r="L53">
-        <v>16</v>
-      </c>
-      <c r="M53">
-        <v>37</v>
-      </c>
-      <c r="N53">
-        <v>0.43</v>
-      </c>
-      <c r="O53">
-        <v>0.5700000000000001</v>
-      </c>
-      <c r="P53" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q53">
-        <v>5128</v>
+        <v>5142</v>
       </c>
     </row>
   </sheetData>
